--- a/data/trans_orig/P16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789D3A4D-8BDC-4CEC-B8D2-C29E6C66487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659A612F-8239-4E25-9A89-2399CA660A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{414236C8-C28C-40A3-B645-6BB56187E822}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13FC0346-39A2-48A0-A43F-4C6CC7D50563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>39,57%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>49,03%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>60,43%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>50,97%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>38,17%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>35,96%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1666 +254,1660 @@
     <t>39,91%</t>
   </si>
   <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>52,18%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>42,71%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEEB5B7-DC1A-44BA-8C16-9F666356773E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7DD7C9-877B-464A-BD97-5EDEFBC50606}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3075,7 +3069,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>125</v>
@@ -3084,13 +3078,13 @@
         <v>131602</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -3099,13 +3093,13 @@
         <v>227568</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3114,13 @@
         <v>107342</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -3135,13 +3129,13 @@
         <v>76066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -3150,13 +3144,13 @@
         <v>183408</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,7 +3206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3224,13 +3218,13 @@
         <v>109434</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3239,13 +3233,13 @@
         <v>179722</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -3254,13 +3248,13 @@
         <v>289156</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3269,13 @@
         <v>161377</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -3290,13 +3284,13 @@
         <v>98422</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -3305,13 +3299,13 @@
         <v>259799</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3379,13 +3373,13 @@
         <v>238204</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -3394,13 +3388,13 @@
         <v>355240</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>590</v>
@@ -3409,13 +3403,13 @@
         <v>593444</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3424,13 @@
         <v>376823</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -3445,13 +3439,13 @@
         <v>282979</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>629</v>
@@ -3460,13 +3454,13 @@
         <v>659802</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3528,13 @@
         <v>330173</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>418</v>
@@ -3549,13 +3543,13 @@
         <v>443670</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>750</v>
@@ -3564,13 +3558,13 @@
         <v>773843</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3579,13 @@
         <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3600,13 +3594,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3615,13 +3609,13 @@
         <v>752445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3683,13 @@
         <v>1327863</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1933</v>
@@ -3704,28 +3698,28 @@
         <v>1979476</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3268</v>
       </c>
       <c r="N28" s="7">
-        <v>3307338</v>
+        <v>3307339</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,16 +3731,16 @@
         <v>1878</v>
       </c>
       <c r="D29" s="7">
-        <v>1947662</v>
+        <v>1947663</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1364</v>
@@ -3755,13 +3749,13 @@
         <v>1399722</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3242</v>
@@ -3770,13 +3764,13 @@
         <v>3347384</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3782,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3818,7 +3812,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFE1074-8F15-445B-88DC-031BE46C7303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69628AE3-8EFE-44ED-9B63-C47C22CC9FE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4111,13 @@
         <v>257052</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>340</v>
@@ -4132,13 +4126,13 @@
         <v>375172</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>573</v>
@@ -4147,13 +4141,13 @@
         <v>632224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4162,13 @@
         <v>248475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -4183,13 +4177,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -4198,13 +4192,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4266,13 @@
         <v>174057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -4287,13 +4281,13 @@
         <v>259644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -4302,13 +4296,13 @@
         <v>433701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4317,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4338,13 +4332,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4353,13 +4347,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4421,13 @@
         <v>349644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -4442,13 +4436,13 @@
         <v>511780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>798</v>
@@ -4457,13 +4451,13 @@
         <v>861425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4472,13 @@
         <v>317348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4493,13 +4487,13 @@
         <v>163439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -4508,13 +4502,13 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4576,13 @@
         <v>113454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4597,13 +4591,13 @@
         <v>178391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -4612,13 +4606,13 @@
         <v>291845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4627,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4648,13 +4642,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4663,13 +4657,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4737,13 +4731,13 @@
         <v>161466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -4752,13 +4746,13 @@
         <v>217841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -4767,13 +4761,13 @@
         <v>379307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4782,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4803,13 +4797,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4818,13 +4812,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4892,13 +4886,13 @@
         <v>346581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>429</v>
@@ -4907,13 +4901,13 @@
         <v>469574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -4922,13 +4916,13 @@
         <v>816155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4937,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4958,13 +4952,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4973,13 +4967,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5041,13 @@
         <v>322969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>445</v>
@@ -5062,13 +5056,13 @@
         <v>484367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>734</v>
@@ -5077,13 +5071,13 @@
         <v>807336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5092,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -5113,13 +5107,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -5128,13 +5122,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5196,13 @@
         <v>1725223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>2311</v>
@@ -5217,13 +5211,13 @@
         <v>2496770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>3897</v>
@@ -5232,13 +5226,13 @@
         <v>4221993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,28 +5247,28 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -5283,13 +5277,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,7 +5310,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555408</v>
+        <v>3555407</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8484F4E6-FD52-4BFF-9ABE-8239C5FE6BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC902DD5-105E-4FA5-B771-DA1569708B06}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5487,13 @@
         <v>173095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5508,13 +5502,13 @@
         <v>200648</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5523,13 +5517,13 @@
         <v>373743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5538,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5559,13 +5553,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5574,13 +5568,13 @@
         <v>208721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5642,13 @@
         <v>242494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>318</v>
@@ -5663,13 +5657,13 @@
         <v>350605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>547</v>
@@ -5678,13 +5672,13 @@
         <v>593099</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5693,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5714,13 +5708,13 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -5729,13 +5723,13 @@
         <v>432560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5797,13 @@
         <v>160975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -5818,13 +5812,13 @@
         <v>221382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -5833,13 +5827,13 @@
         <v>382357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5869,13 +5863,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5884,13 +5878,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5952,13 @@
         <v>225783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -5973,13 +5967,13 @@
         <v>288673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>478</v>
@@ -5988,13 +5982,13 @@
         <v>514455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6003,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6024,13 +6018,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -6039,13 +6033,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6107,13 @@
         <v>91277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -6128,13 +6122,13 @@
         <v>141724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -6143,13 +6137,13 @@
         <v>233001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6158,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -6179,13 +6173,13 @@
         <v>76863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -6194,13 +6188,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,7 +6250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6268,13 +6262,13 @@
         <v>121394</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -6283,13 +6277,13 @@
         <v>173309</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -6298,13 +6292,13 @@
         <v>294702</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6313,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6334,13 +6328,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6349,13 +6343,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6423,13 +6417,13 @@
         <v>298352</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -6438,13 +6432,13 @@
         <v>393377</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>620</v>
@@ -6453,13 +6447,13 @@
         <v>691729</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6468,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6489,13 +6483,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6504,13 +6498,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6560,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6578,13 +6572,13 @@
         <v>376620</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>471</v>
@@ -6593,13 +6587,13 @@
         <v>528899</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -6608,13 +6602,13 @@
         <v>905518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6623,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6644,13 +6638,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6659,13 +6653,13 @@
         <v>699232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6727,13 @@
         <v>1689989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>266</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>2111</v>
@@ -6748,13 +6742,13 @@
         <v>2298617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>3732</v>
@@ -6763,13 +6757,13 @@
         <v>3988605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6778,13 @@
         <v>1704361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6799,13 +6793,13 @@
         <v>1245925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6814,13 +6808,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5E2A28-E436-43E1-95A5-FEC8B20781F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9E6A4-6BAE-40A3-ABFE-260431A9629D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7018,13 @@
         <v>171662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>405</v>
@@ -7039,13 +7033,13 @@
         <v>204686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>627</v>
@@ -7054,13 +7048,13 @@
         <v>376347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7069,13 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>133</v>
@@ -7090,13 +7084,13 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>242</v>
@@ -7105,13 +7099,13 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7173,13 @@
         <v>265185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -7194,13 +7188,13 @@
         <v>358836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>499</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>706</v>
@@ -7209,13 +7203,13 @@
         <v>624021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7224,13 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -7245,13 +7239,13 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -7260,13 +7254,13 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7328,13 @@
         <v>190779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7">
         <v>402</v>
@@ -7349,13 +7343,13 @@
         <v>260663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>637</v>
@@ -7364,13 +7358,13 @@
         <v>451442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7379,13 @@
         <v>131461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -7400,13 +7394,13 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>524</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -7415,13 +7409,13 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7483,13 @@
         <v>186431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>429</v>
@@ -7504,13 +7498,13 @@
         <v>278499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -7519,13 +7513,13 @@
         <v>464930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7534,13 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -7555,13 +7549,13 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -7570,13 +7564,13 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7638,13 @@
         <v>95183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -7659,13 +7653,13 @@
         <v>148528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -7674,13 +7668,13 @@
         <v>243711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7689,13 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -7710,13 +7704,13 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7725,13 +7719,13 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7799,13 +7793,13 @@
         <v>163600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>334</v>
@@ -7814,13 +7808,13 @@
         <v>178171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>583</v>
@@ -7829,13 +7823,13 @@
         <v>341771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7844,13 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -7865,13 +7859,13 @@
         <v>97451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -7880,13 +7874,13 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7954,13 +7948,13 @@
         <v>384144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>682</v>
@@ -7969,13 +7963,13 @@
         <v>590072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>1069</v>
@@ -7984,13 +7978,13 @@
         <v>974216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7999,13 @@
         <v>243610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -8020,13 +8014,13 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>490</v>
@@ -8035,13 +8029,13 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8091,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8103,13 @@
         <v>309772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>596</v>
@@ -8124,13 +8118,13 @@
         <v>441480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>941</v>
@@ -8139,13 +8133,13 @@
         <v>751252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8154,13 @@
         <v>549656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>464</v>
@@ -8175,13 +8169,13 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -8190,13 +8184,13 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8258,13 @@
         <v>1766755</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>3667</v>
@@ -8279,13 +8273,13 @@
         <v>2460934</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>5655</v>
@@ -8294,13 +8288,13 @@
         <v>4227689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8309,13 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H29" s="7">
         <v>1694</v>
@@ -8330,13 +8324,13 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>3082</v>
@@ -8345,13 +8339,13 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659A612F-8239-4E25-9A89-2399CA660A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70E37E7-2042-4772-B00D-3CA2ED396BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13FC0346-39A2-48A0-A43F-4C6CC7D50563}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13553326-D807-4D12-AD03-7943A54DC049}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1602 +77,1620 @@
     <t>39,57%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>43,57%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
     <t>58,17%</t>
   </si>
   <si>
@@ -1682,12 +1700,6 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
     <t>39,21%</t>
   </si>
   <si>
@@ -1706,9 +1718,6 @@
     <t>64,64%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
     <t>69,37%</t>
   </si>
   <si>
@@ -1736,9 +1745,6 @@
     <t>30,63%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
     <t>38,18%</t>
   </si>
   <si>
@@ -1751,12 +1757,6 @@
     <t>61,19%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
     <t>73,37%</t>
   </si>
   <si>
@@ -1778,12 +1778,6 @@
     <t>38,81%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
     <t>26,63%</t>
   </si>
   <si>
@@ -1856,12 +1850,6 @@
     <t>60,78%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
     <t>54,14%</t>
   </si>
   <si>
@@ -1883,13 +1871,7 @@
     <t>61,13%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
     <t>45,86%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
   </si>
   <si>
     <t>35,3%</t>
@@ -2319,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7DD7C9-877B-464A-BD97-5EDEFBC50606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15165236-4277-4BAC-9405-B57242EF8525}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3069,7 +3051,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>125</v>
@@ -3078,13 +3060,13 @@
         <v>131602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -3093,13 +3075,13 @@
         <v>227568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3096,13 @@
         <v>107342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -3129,13 +3111,13 @@
         <v>76066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -3144,13 +3126,13 @@
         <v>183408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3200,13 @@
         <v>109434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3233,13 +3215,13 @@
         <v>179722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -3248,13 +3230,13 @@
         <v>289156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3251,7 @@
         <v>161377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>116</v>
@@ -3564,7 +3546,7 @@
         <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3561,13 @@
         <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3594,13 +3576,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3609,13 +3591,13 @@
         <v>752445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3665,13 @@
         <v>1327863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>1933</v>
@@ -3698,13 +3680,13 @@
         <v>1979476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>3268</v>
@@ -3713,13 +3695,13 @@
         <v>3307339</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,16 +3713,16 @@
         <v>1878</v>
       </c>
       <c r="D29" s="7">
-        <v>1947663</v>
+        <v>1947662</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>1364</v>
@@ -3749,13 +3731,13 @@
         <v>1399722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>3242</v>
@@ -3764,13 +3746,13 @@
         <v>3347384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3764,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69628AE3-8EFE-44ED-9B63-C47C22CC9FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C6F78-0E97-4D6A-B82D-F1815A6B05AF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4093,13 @@
         <v>257052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>340</v>
@@ -4126,13 +4108,13 @@
         <v>375172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>573</v>
@@ -4141,13 +4123,13 @@
         <v>632224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4144,13 @@
         <v>248475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -4177,13 +4159,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -4192,13 +4174,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4248,13 @@
         <v>174057</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -4281,13 +4263,13 @@
         <v>259644</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -4296,13 +4278,13 @@
         <v>433701</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4299,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4424,10 +4406,10 @@
         <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -4436,13 +4418,13 @@
         <v>511780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>798</v>
@@ -4451,13 +4433,13 @@
         <v>861425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4454,13 @@
         <v>317348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4487,13 +4469,13 @@
         <v>163439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -4502,13 +4484,13 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4558,13 @@
         <v>113454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4591,13 +4573,13 @@
         <v>178391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -4606,13 +4588,13 @@
         <v>291845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4609,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4642,13 +4624,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4657,13 +4639,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4713,13 @@
         <v>161466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -4746,13 +4728,13 @@
         <v>217841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -4761,13 +4743,13 @@
         <v>379307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4764,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4797,13 +4779,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4812,13 +4794,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4868,13 @@
         <v>346581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>429</v>
@@ -4901,13 +4883,13 @@
         <v>469574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -4916,13 +4898,13 @@
         <v>816155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4919,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4952,13 +4934,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4967,13 +4949,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5023,13 @@
         <v>322969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>445</v>
@@ -5056,13 +5038,13 @@
         <v>484367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>734</v>
@@ -5071,13 +5053,13 @@
         <v>807336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5074,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -5107,13 +5089,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -5122,7 +5104,7 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>299</v>
@@ -5229,10 +5211,10 @@
         <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,28 +5229,28 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058637</v>
+        <v>1058638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -5277,13 +5259,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5292,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555407</v>
+        <v>3555408</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5339,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC902DD5-105E-4FA5-B771-DA1569708B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829AE8B2-081F-486D-9E5C-6363AB7C8A69}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5469,13 @@
         <v>173095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5502,13 +5484,13 @@
         <v>200648</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5517,13 +5499,13 @@
         <v>373743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5520,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5553,13 +5535,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5568,13 +5550,13 @@
         <v>208721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6447,13 +6429,13 @@
         <v>691729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6450,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6483,13 +6465,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6498,13 +6480,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6554,13 @@
         <v>376620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>471</v>
@@ -6587,13 +6569,13 @@
         <v>528899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -6602,13 +6584,13 @@
         <v>905518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6605,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6638,13 +6620,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6653,13 +6635,13 @@
         <v>699232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6709,13 @@
         <v>1689989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>266</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>2111</v>
@@ -6742,13 +6724,13 @@
         <v>2298617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>3732</v>
@@ -6757,13 +6739,13 @@
         <v>3988605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6760,13 @@
         <v>1704361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6793,13 +6775,13 @@
         <v>1245925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6808,13 +6790,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9E6A4-6BAE-40A3-ABFE-260431A9629D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DFB323-C66E-48CD-A289-6B94A3280F64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7000,13 @@
         <v>171662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>405</v>
@@ -7033,13 +7015,13 @@
         <v>204686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>627</v>
@@ -7048,13 +7030,13 @@
         <v>376347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7051,13 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>133</v>
@@ -7084,13 +7066,13 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>242</v>
@@ -7099,13 +7081,13 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7155,13 @@
         <v>265185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -7188,13 +7170,13 @@
         <v>358836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M7" s="7">
         <v>706</v>
@@ -7203,10 +7185,10 @@
         <v>624021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>41</v>
@@ -7224,13 +7206,13 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -7239,13 +7221,13 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>502</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -7254,13 +7236,13 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,10 +7313,10 @@
         <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>402</v>
@@ -7343,13 +7325,13 @@
         <v>260663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>509</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>637</v>
@@ -7358,13 +7340,13 @@
         <v>451442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,10 +7364,10 @@
         <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -7394,13 +7376,13 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>517</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -7409,13 +7391,13 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7465,13 @@
         <v>186431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H13" s="7">
         <v>429</v>
@@ -7498,13 +7480,13 @@
         <v>278499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>526</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -7513,13 +7495,13 @@
         <v>464930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7516,13 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -7549,13 +7531,13 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -7564,13 +7546,13 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7620,13 @@
         <v>95183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -7653,13 +7635,13 @@
         <v>148528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -7668,13 +7650,13 @@
         <v>243711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7671,13 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -7704,13 +7686,13 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7719,13 +7701,13 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7775,13 @@
         <v>163600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H19" s="7">
         <v>334</v>
@@ -7808,13 +7790,13 @@
         <v>178171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>583</v>
@@ -7823,13 +7805,13 @@
         <v>341771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7826,13 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -7859,13 +7841,13 @@
         <v>97451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -7874,13 +7856,13 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7930,13 @@
         <v>384144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>682</v>
@@ -8002,10 +7984,10 @@
         <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>382</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -8014,13 +7996,13 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>490</v>
@@ -8029,13 +8011,13 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8085,13 @@
         <v>309772</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>596</v>
@@ -8118,13 +8100,13 @@
         <v>441480</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>941</v>
@@ -8133,13 +8115,13 @@
         <v>751252</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8136,13 @@
         <v>549656</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>464</v>
@@ -8169,13 +8151,13 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -8184,13 +8166,13 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8240,13 @@
         <v>1766755</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>3667</v>
@@ -8273,13 +8255,13 @@
         <v>2460934</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>5655</v>
@@ -8288,13 +8270,13 @@
         <v>4227689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8291,13 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>1694</v>
@@ -8324,13 +8306,13 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>3082</v>
@@ -8339,13 +8321,13 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70E37E7-2042-4772-B00D-3CA2ED396BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C2F6F5-23CC-4FCA-B1BC-9C3B29CDB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13553326-D807-4D12-AD03-7943A54DC049}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA339BB-40B1-4D22-8F58-2C7B9ED2803A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1825 +71,1849 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>49,03%</t>
   </si>
   <si>
-    <t>44,44%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>52,89%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>47,11%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>50,87%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>42,88%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15165236-4277-4BAC-9405-B57242EF8525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D5C08-5713-487B-B4E3-FD0CCE3885F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3200,13 +3224,13 @@
         <v>109434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3215,13 +3239,13 @@
         <v>179722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -3230,13 +3254,13 @@
         <v>289156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3275,13 @@
         <v>161377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -3266,13 +3290,13 @@
         <v>98422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -3281,13 +3305,13 @@
         <v>259799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3367,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3379,13 @@
         <v>238204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -3370,13 +3394,13 @@
         <v>355240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>590</v>
@@ -3385,13 +3409,13 @@
         <v>593444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3430,13 @@
         <v>376823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -3421,13 +3445,13 @@
         <v>282979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>629</v>
@@ -3436,13 +3460,13 @@
         <v>659802</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3522,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3534,13 @@
         <v>330173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>418</v>
@@ -3525,13 +3549,13 @@
         <v>443670</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>750</v>
@@ -3540,13 +3564,13 @@
         <v>773843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3585,13 @@
         <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3576,13 +3600,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3591,13 +3615,13 @@
         <v>752445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3689,13 @@
         <v>1327863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1933</v>
@@ -3680,28 +3704,28 @@
         <v>1979476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3268</v>
       </c>
       <c r="N28" s="7">
-        <v>3307339</v>
+        <v>3307338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3740,13 @@
         <v>1947662</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1364</v>
@@ -3731,13 +3755,13 @@
         <v>1399722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3242</v>
@@ -3746,13 +3770,13 @@
         <v>3347384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3818,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C6F78-0E97-4D6A-B82D-F1815A6B05AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1E1BF0-5CF7-4DCC-AC44-463EBE0186C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4117,13 @@
         <v>257052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>340</v>
@@ -4108,13 +4132,13 @@
         <v>375172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>573</v>
@@ -4123,13 +4147,13 @@
         <v>632224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4168,13 @@
         <v>248475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -4159,13 +4183,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -4174,13 +4198,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4272,13 @@
         <v>174057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -4263,13 +4287,13 @@
         <v>259644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -4278,13 +4302,13 @@
         <v>433701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4323,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4314,13 +4338,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4329,13 +4353,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4427,13 @@
         <v>349644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -4418,13 +4442,13 @@
         <v>511780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>798</v>
@@ -4433,13 +4457,13 @@
         <v>861425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4478,13 @@
         <v>317348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4469,13 +4493,13 @@
         <v>163439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -4484,13 +4508,13 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4582,13 @@
         <v>113454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4573,13 +4597,13 @@
         <v>178391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -4588,13 +4612,13 @@
         <v>291845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4633,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4624,13 +4648,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4639,13 +4663,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4737,13 @@
         <v>161466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -4728,13 +4752,13 @@
         <v>217841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -4743,13 +4767,13 @@
         <v>379307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4788,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4779,13 +4803,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4794,13 +4818,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4880,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4892,13 @@
         <v>346581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>429</v>
@@ -4883,13 +4907,13 @@
         <v>469574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -4898,13 +4922,13 @@
         <v>816155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4943,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4934,13 +4958,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4949,13 +4973,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5035,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +5047,13 @@
         <v>322969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>445</v>
@@ -5038,13 +5062,13 @@
         <v>484367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>734</v>
@@ -5053,13 +5077,13 @@
         <v>807336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5098,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -5089,13 +5113,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -5104,13 +5128,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5202,13 @@
         <v>1725223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>2311</v>
@@ -5193,13 +5217,13 @@
         <v>2496770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>3897</v>
@@ -5208,13 +5232,13 @@
         <v>4221993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5253,13 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
@@ -5244,13 +5268,13 @@
         <v>1058638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -5259,13 +5283,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829AE8B2-081F-486D-9E5C-6363AB7C8A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B2CE4-6183-49B1-BEA7-050E33335061}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5493,13 @@
         <v>173095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5484,13 +5508,13 @@
         <v>200648</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5499,13 +5523,13 @@
         <v>373743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5544,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5535,13 +5559,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5550,13 +5574,13 @@
         <v>208721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5648,13 @@
         <v>242494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>318</v>
@@ -5639,13 +5663,13 @@
         <v>350605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>547</v>
@@ -5654,13 +5678,13 @@
         <v>593099</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5699,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5690,13 +5714,13 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -5705,13 +5729,13 @@
         <v>432560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5803,13 @@
         <v>160975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -5794,13 +5818,13 @@
         <v>221382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -5809,13 +5833,13 @@
         <v>382357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5854,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5845,13 +5869,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5860,13 +5884,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5958,13 @@
         <v>225783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -5949,13 +5973,13 @@
         <v>288673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>478</v>
@@ -5964,13 +5988,13 @@
         <v>514455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6009,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6000,13 +6024,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -6015,13 +6039,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6113,13 @@
         <v>91277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -6104,13 +6128,13 @@
         <v>141724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -6119,13 +6143,13 @@
         <v>233001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6164,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -6155,13 +6179,13 @@
         <v>76863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -6170,13 +6194,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6268,13 @@
         <v>121394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -6259,13 +6283,13 @@
         <v>173309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -6274,13 +6298,13 @@
         <v>294702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6319,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6310,13 +6334,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6325,13 +6349,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6411,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6423,13 @@
         <v>298352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -6414,13 +6438,13 @@
         <v>393377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>620</v>
@@ -6429,13 +6453,13 @@
         <v>691729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,10 +6474,10 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>437</v>
@@ -6542,7 +6566,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6557,10 +6581,10 @@
         <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>471</v>
@@ -6569,13 +6593,13 @@
         <v>528899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -6584,13 +6608,13 @@
         <v>905518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6629,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6620,13 +6644,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6635,13 +6659,13 @@
         <v>699232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6733,13 @@
         <v>1689989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>2111</v>
@@ -6724,13 +6748,13 @@
         <v>2298617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>3732</v>
@@ -6739,13 +6763,13 @@
         <v>3988605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6784,13 @@
         <v>1704361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6775,13 +6799,13 @@
         <v>1245925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6790,13 +6814,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DFB323-C66E-48CD-A289-6B94A3280F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10039010-4C3A-426B-B632-058107480096}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7024,13 @@
         <v>171662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>405</v>
@@ -7015,13 +7039,13 @@
         <v>204686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>627</v>
@@ -7030,13 +7054,13 @@
         <v>376347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7075,13 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>133</v>
@@ -7066,13 +7090,13 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>242</v>
@@ -7081,13 +7105,13 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7179,13 @@
         <v>265185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -7170,13 +7194,13 @@
         <v>358836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M7" s="7">
         <v>706</v>
@@ -7185,13 +7209,13 @@
         <v>624021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7230,13 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -7221,13 +7245,13 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -7236,13 +7260,13 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7334,13 @@
         <v>190779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H10" s="7">
         <v>402</v>
@@ -7325,13 +7349,13 @@
         <v>260663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>637</v>
@@ -7340,13 +7364,13 @@
         <v>451442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7385,13 @@
         <v>131461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -7376,13 +7400,13 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -7391,13 +7415,13 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7489,13 @@
         <v>186431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>429</v>
@@ -7480,13 +7504,13 @@
         <v>278499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -7495,13 +7519,13 @@
         <v>464930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7540,13 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -7531,13 +7555,13 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -7546,13 +7570,13 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7644,13 @@
         <v>95183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -7635,13 +7659,13 @@
         <v>148528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -7650,13 +7674,13 @@
         <v>243711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7695,13 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -7686,13 +7710,13 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7701,13 +7725,13 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7799,13 @@
         <v>163600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>334</v>
@@ -7790,13 +7814,13 @@
         <v>178171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>583</v>
@@ -7805,13 +7829,13 @@
         <v>341771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>561</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7850,13 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -7841,13 +7865,13 @@
         <v>97451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -7856,13 +7880,13 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7942,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7954,13 @@
         <v>384144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>576</v>
       </c>
       <c r="H22" s="7">
         <v>682</v>
@@ -7945,13 +7969,13 @@
         <v>590072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>1069</v>
@@ -7960,13 +7984,13 @@
         <v>974216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8005,13 @@
         <v>243610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -7996,13 +8020,13 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>490</v>
@@ -8011,13 +8035,13 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8097,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8109,13 @@
         <v>309772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>596</v>
@@ -8100,13 +8124,13 @@
         <v>441480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>941</v>
@@ -8115,13 +8139,13 @@
         <v>751252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8160,13 @@
         <v>549656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>464</v>
@@ -8151,13 +8175,13 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -8166,13 +8190,13 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8264,13 @@
         <v>1766755</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>3667</v>
@@ -8255,13 +8279,13 @@
         <v>2460934</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>5655</v>
@@ -8270,13 +8294,13 @@
         <v>4227689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>609</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8315,13 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>1694</v>
@@ -8306,13 +8330,13 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>3082</v>
@@ -8321,13 +8345,13 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C2F6F5-23CC-4FCA-B1BC-9C3B29CDB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3D7341-6485-4EFD-9794-66C2687006AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA339BB-40B1-4D22-8F58-2C7B9ED2803A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B9DE8C-0A28-4803-8C80-873DCC564024}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="634">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>50,85%</t>
@@ -704,58 +755,52 @@
     <t>38,49%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>53,36%</t>
@@ -1331,9 +1376,6 @@
     <t>41,0%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
     <t>53,11%</t>
   </si>
   <si>
@@ -1355,9 +1397,6 @@
     <t>59,0%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
     <t>39,18%</t>
   </si>
   <si>
@@ -1478,442 +1517,430 @@
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D5C08-5713-487B-B4E3-FD0CCE3885F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350D8EEA-A5D7-42D5-BF13-4D13407431DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3701,7 +3728,7 @@
         <v>1933</v>
       </c>
       <c r="I28" s="7">
-        <v>1979476</v>
+        <v>1979475</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3803,7 +3830,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1E1BF0-5CF7-4DCC-AC44-463EBE0186C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CE274C-4918-4B96-BCFF-0550B8FE2C51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,43 +4001,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="D4" s="7">
+        <v>166790</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="I4" s="7">
+        <v>222876</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="N4" s="7">
+        <v>389666</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,43 +4052,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126219</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N5" s="7">
+        <v>190588</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,43 +4103,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293009</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580254</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4162,13 @@
         <v>257052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>340</v>
@@ -4132,13 +4177,13 @@
         <v>375172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>573</v>
@@ -4147,13 +4192,13 @@
         <v>632224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4213,13 @@
         <v>248475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -4183,13 +4228,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -4198,13 +4243,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4317,13 @@
         <v>174057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -4287,13 +4332,13 @@
         <v>259644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -4302,13 +4347,13 @@
         <v>433701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4368,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4338,13 +4383,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4353,13 +4398,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,49 +4466,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="D13" s="7">
-        <v>349644</v>
+        <v>182854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
-        <v>476</v>
+        <v>276</v>
       </c>
       <c r="I13" s="7">
-        <v>511780</v>
+        <v>288905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
-        <v>798</v>
+        <v>440</v>
       </c>
       <c r="N13" s="7">
-        <v>861425</v>
+        <v>471759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,49 +4517,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>317348</v>
+        <v>191128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>480786</v>
+        <v>290197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666992</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4538,10 +4583,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>626</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>675219</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4553,10 +4598,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1250</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1342211</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4582,13 +4627,13 @@
         <v>113454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4597,13 +4642,13 @@
         <v>178391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -4612,13 +4657,13 @@
         <v>291845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4678,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4648,13 +4693,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4663,13 +4708,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4782,13 @@
         <v>161466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -4752,13 +4797,13 @@
         <v>217841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -4767,13 +4812,13 @@
         <v>379307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4833,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4803,13 +4848,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4818,13 +4863,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4937,13 @@
         <v>346581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>429</v>
@@ -4907,13 +4952,13 @@
         <v>469574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -4925,10 +4970,10 @@
         <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4988,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4958,13 +5003,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4976,10 +5021,10 @@
         <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5092,13 @@
         <v>322969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>445</v>
@@ -5062,13 +5107,13 @@
         <v>484367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>734</v>
@@ -5077,13 +5122,13 @@
         <v>807336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5143,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -5113,13 +5158,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -5128,13 +5173,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5247,13 @@
         <v>1725223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>2311</v>
@@ -5217,13 +5262,13 @@
         <v>2496770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>3897</v>
@@ -5232,13 +5277,13 @@
         <v>4221993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,28 +5298,28 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -5283,13 +5328,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,7 +5361,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555408</v>
+        <v>3555407</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5369,7 +5414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B2CE4-6183-49B1-BEA7-050E33335061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A609B5-A2D0-438E-AD41-1F73BAAADB0A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5538,13 @@
         <v>173095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5508,13 +5553,13 @@
         <v>200648</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5523,13 +5568,13 @@
         <v>373743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5589,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5559,13 +5604,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5574,13 +5619,13 @@
         <v>208721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5693,13 @@
         <v>242494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>318</v>
@@ -5663,13 +5708,13 @@
         <v>350605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>547</v>
@@ -5678,13 +5723,13 @@
         <v>593099</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5744,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5714,13 +5759,13 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -5729,10 +5774,10 @@
         <v>432560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>58</v>
@@ -5803,13 +5848,13 @@
         <v>160975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -5818,13 +5863,13 @@
         <v>221382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -5833,13 +5878,13 @@
         <v>382357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5899,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5869,13 +5914,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5884,13 +5929,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +6003,13 @@
         <v>225783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -5973,13 +6018,13 @@
         <v>288673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>478</v>
@@ -5988,13 +6033,13 @@
         <v>514455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6054,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6024,13 +6069,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -6039,13 +6084,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6158,13 @@
         <v>91277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -6128,13 +6173,13 @@
         <v>141724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -6143,10 +6188,10 @@
         <v>233001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -6164,13 +6209,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -6179,13 +6224,13 @@
         <v>76863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -6194,13 +6239,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6313,13 @@
         <v>121394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -6283,13 +6328,13 @@
         <v>173309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -6298,13 +6343,13 @@
         <v>294702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6364,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6334,13 +6379,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6349,13 +6394,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6468,13 @@
         <v>298352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>355</v>
@@ -6438,13 +6483,13 @@
         <v>393377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>620</v>
@@ -6453,13 +6498,13 @@
         <v>691729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6519,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6489,13 +6534,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6504,13 +6549,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6623,13 @@
         <v>376620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>471</v>
@@ -6593,13 +6638,13 @@
         <v>528899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -6608,13 +6653,13 @@
         <v>905518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6674,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6644,13 +6689,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6659,13 +6704,13 @@
         <v>699232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6778,13 @@
         <v>1689989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>2111</v>
@@ -6748,13 +6793,13 @@
         <v>2298617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>3732</v>
@@ -6763,13 +6808,13 @@
         <v>3988605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6829,13 @@
         <v>1704361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6799,13 +6844,13 @@
         <v>1245925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6814,13 +6859,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10039010-4C3A-426B-B632-058107480096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718650B-910D-4A22-B2C9-4A5E887D6BD0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7021,46 +7066,46 @@
         <v>222</v>
       </c>
       <c r="D4" s="7">
-        <v>171662</v>
+        <v>201368</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>405</v>
       </c>
       <c r="I4" s="7">
-        <v>204686</v>
+        <v>216309</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>627</v>
       </c>
       <c r="N4" s="7">
-        <v>376347</v>
+        <v>417676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,46 +7117,46 @@
         <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>88636</v>
+        <v>110075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>133</v>
       </c>
       <c r="I5" s="7">
-        <v>66717</v>
+        <v>73326</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>155353</v>
+        <v>183401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7168,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7138,7 +7183,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7153,7 +7198,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7176,46 +7221,46 @@
         <v>220</v>
       </c>
       <c r="D7" s="7">
-        <v>265185</v>
+        <v>256633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
       </c>
       <c r="I7" s="7">
-        <v>358836</v>
+        <v>332540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M7" s="7">
         <v>706</v>
       </c>
       <c r="N7" s="7">
-        <v>624021</v>
+        <v>589173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,46 +7272,46 @@
         <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>254112</v>
+        <v>261757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
       </c>
       <c r="I8" s="7">
-        <v>195005</v>
+        <v>181751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>449117</v>
+        <v>443507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7323,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7293,7 +7338,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7308,7 +7353,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1073138</v>
+        <v>1032680</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7331,46 +7376,46 @@
         <v>235</v>
       </c>
       <c r="D10" s="7">
-        <v>190779</v>
+        <v>184981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>402</v>
       </c>
       <c r="I10" s="7">
-        <v>260663</v>
+        <v>242728</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>637</v>
       </c>
       <c r="N10" s="7">
-        <v>451442</v>
+        <v>427709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7427,46 @@
         <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>131461</v>
+        <v>131069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>112621</v>
+        <v>106400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>244082</v>
+        <v>237469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7478,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7448,7 +7493,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7463,7 +7508,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7486,46 +7531,46 @@
         <v>186</v>
       </c>
       <c r="D13" s="7">
-        <v>186431</v>
+        <v>179212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>429</v>
       </c>
       <c r="I13" s="7">
-        <v>278499</v>
+        <v>313004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
       </c>
       <c r="N13" s="7">
-        <v>464930</v>
+        <v>492215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,46 +7582,46 @@
         <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>135809</v>
+        <v>133345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
       </c>
       <c r="I14" s="7">
-        <v>150057</v>
+        <v>162714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
       </c>
       <c r="N14" s="7">
-        <v>285866</v>
+        <v>296059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7633,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7603,7 +7648,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7618,7 +7663,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7641,46 +7686,46 @@
         <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>95183</v>
+        <v>86506</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
       </c>
       <c r="I16" s="7">
-        <v>148528</v>
+        <v>134635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
       </c>
       <c r="N16" s="7">
-        <v>243711</v>
+        <v>221141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,46 +7737,46 @@
         <v>135</v>
       </c>
       <c r="D17" s="7">
-        <v>101565</v>
+        <v>92236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>83375</v>
+        <v>74021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
       </c>
       <c r="N17" s="7">
-        <v>184940</v>
+        <v>166257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>573</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7788,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7758,7 +7803,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7773,7 +7818,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7796,46 +7841,46 @@
         <v>249</v>
       </c>
       <c r="D19" s="7">
-        <v>163600</v>
+        <v>157496</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7">
         <v>334</v>
       </c>
       <c r="I19" s="7">
-        <v>178171</v>
+        <v>166210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M19" s="7">
         <v>583</v>
       </c>
       <c r="N19" s="7">
-        <v>341771</v>
+        <v>323706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>579</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>566</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,46 +7892,46 @@
         <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>113623</v>
+        <v>112140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>97451</v>
+        <v>90846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
       </c>
       <c r="N20" s="7">
-        <v>211074</v>
+        <v>202986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7943,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7913,7 +7958,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7928,7 +7973,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7951,46 +7996,46 @@
         <v>387</v>
       </c>
       <c r="D22" s="7">
-        <v>384144</v>
+        <v>375182</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>682</v>
       </c>
       <c r="I22" s="7">
-        <v>590072</v>
+        <v>648576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
         <v>1069</v>
       </c>
       <c r="N22" s="7">
-        <v>974216</v>
+        <v>1023758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,46 +8047,46 @@
         <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>243610</v>
+        <v>249097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>214131</v>
+        <v>200689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="M23" s="7">
         <v>490</v>
       </c>
       <c r="N23" s="7">
-        <v>457741</v>
+        <v>449786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8098,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8068,7 +8113,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8083,7 +8128,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8106,46 +8151,46 @@
         <v>345</v>
       </c>
       <c r="D25" s="7">
-        <v>309772</v>
+        <v>264248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>596</v>
       </c>
       <c r="I25" s="7">
-        <v>441480</v>
+        <v>368952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>941</v>
       </c>
       <c r="N25" s="7">
-        <v>751252</v>
+        <v>633200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,46 +8202,46 @@
         <v>417</v>
       </c>
       <c r="D26" s="7">
-        <v>549656</v>
+        <v>664472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="H26" s="7">
         <v>464</v>
       </c>
       <c r="I26" s="7">
-        <v>423551</v>
+        <v>345899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
       </c>
       <c r="N26" s="7">
-        <v>973207</v>
+        <v>1010372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8253,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8223,7 +8268,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8238,7 +8283,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8261,46 +8306,46 @@
         <v>1988</v>
       </c>
       <c r="D28" s="7">
-        <v>1766755</v>
+        <v>1705627</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>3667</v>
       </c>
       <c r="I28" s="7">
-        <v>2460934</v>
+        <v>2422952</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>362</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>5655</v>
       </c>
       <c r="N28" s="7">
-        <v>4227689</v>
+        <v>4128578</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,46 +8357,46 @@
         <v>1388</v>
       </c>
       <c r="D29" s="7">
-        <v>1618473</v>
+        <v>1754190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>1694</v>
       </c>
       <c r="I29" s="7">
-        <v>1342908</v>
+        <v>1235646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>3082</v>
       </c>
       <c r="N29" s="7">
-        <v>2961381</v>
+        <v>2989837</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>632</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8408,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8378,7 +8423,7 @@
         <v>5361</v>
       </c>
       <c r="I30" s="7">
-        <v>3803842</v>
+        <v>3658598</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8393,7 +8438,7 @@
         <v>8737</v>
       </c>
       <c r="N30" s="7">
-        <v>7189070</v>
+        <v>7118415</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
